--- a/medicine/Enfance/Ana_Campoy/Ana_Campoy.xlsx
+++ b/medicine/Enfance/Ana_Campoy/Ana_Campoy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ana Campoy, née en 1979 à Madrid, est une romancière jeunesse espagnole.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant de se tourner vers la littérature, elle travaille comme journaliste et scénariste pour la télévision[1]. Elle est l'autrice de la série jeunesse Las aventuras de Alfred &amp; Agatha, traduite en plusieurs langues dont le français, le chinois, le roumain ou encore le polonais[2].
-En 2017, elle reçoit le prix Premio Jaén de Narrativa Juvenil pour son roman La cronopandilla: el túnel del tiempo[3],[1]. Todo eso que nos une lui est sélectionné dans la liste des meilleurs livres jeunesse de l'année par la Bibliothèque municipale de Madrid[4].
-Son dernier roman est sorti en 2019, dans lequel les parents sont autant de potentiels lecteurs que les enfants[5]. Elle a l'idée qu'en remettant les parents au centre des romans pour enfants, cela poussera les familles à les lire ensemble[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant de se tourner vers la littérature, elle travaille comme journaliste et scénariste pour la télévision. Elle est l'autrice de la série jeunesse Las aventuras de Alfred &amp; Agatha, traduite en plusieurs langues dont le français, le chinois, le roumain ou encore le polonais.
+En 2017, elle reçoit le prix Premio Jaén de Narrativa Juvenil pour son roman La cronopandilla: el túnel del tiempo,. Todo eso que nos une lui est sélectionné dans la liste des meilleurs livres jeunesse de l'année par la Bibliothèque municipale de Madrid.
+Son dernier roman est sorti en 2019, dans lequel les parents sont autant de potentiels lecteurs que les enfants. Elle a l'idée qu'en remettant les parents au centre des romans pour enfants, cela poussera les familles à les lire ensemble.
 </t>
         </is>
       </c>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série
-Série Les enquêtes d'Alfred et Agatha, (traduit de l'espagnol par Martine Desoille), Bayard jeunesse
+          <t>Série</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Série Les enquêtes d'Alfred et Agatha, (traduit de l'espagnol par Martine Desoille), Bayard jeunesse
 L'affaire des oiseaux ( (es) ''Los diez pájaros Elster), 2015
 Qu'est-il arrivé à Snouty Jones ? ( (es) El chelín de plata), 2016
 L'extraordinaire invention du Dr Sorenson ( (es) La caja mágica), 2016
